--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\ML lipedema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\ML lipedema\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B38A56-4F6B-4CAA-B575-8C8A97CD281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17E2DAE-EA7F-4CA0-BCB9-ABB5DAC86E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Histamine</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RX232.2022 </t>
   </si>
   <si>
     <t>M</t>
@@ -487,14 +484,14 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -591,8 +588,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.77024760681668425</v>
@@ -682,7 +679,7 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="AE2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF2">
         <v>58</v>
